--- a/数值.xlsx
+++ b/数值.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Godot Projects\minidayz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF57F6CA-F4F2-4F8B-A177-3C4B92592D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C38864-22BD-441A-B735-2FFC07352734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{94B643B6-7569-406B-AD43-B8AE076E39CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{94B643B6-7569-406B-AD43-B8AE076E39CC}"/>
   </bookViews>
   <sheets>
     <sheet name="物品" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -207,6 +207,10 @@
   </si>
   <si>
     <t>武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -743,7 +747,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -931,6 +935,9 @@
       </c>
       <c r="E10" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">

--- a/数值.xlsx
+++ b/数值.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Godot Projects\minidayz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C38864-22BD-441A-B735-2FFC07352734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F86E70-363A-4529-B2C4-A7A565D9C474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{94B643B6-7569-406B-AD43-B8AE076E39CC}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -130,10 +130,6 @@
     <t>number</t>
   </si>
   <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>stackable</t>
   </si>
   <si>
@@ -186,10 +182,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>guiPortrait</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>slotNumber</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -211,6 +203,18 @@
   </si>
   <si>
     <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interaction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stackable</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -296,16 +300,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>632856</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>109105</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>147081</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>1253837</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>70387</xdr:rowOff>
+      <xdr:colOff>1606262</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142257</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -334,7 +338,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8967231" y="1194955"/>
+          <a:off x="9329181" y="0"/>
           <a:ext cx="7755206" cy="2856882"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -347,15 +351,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>656360</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:colOff>627785</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>1432214</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:colOff>1403639</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -384,7 +388,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9828935" y="3028949"/>
+          <a:off x="9809885" y="3152774"/>
           <a:ext cx="3119004" cy="2343150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -396,16 +400,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>783436</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>526261</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>485303</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>124677</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>637703</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>10377</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -434,7 +438,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6460336" y="0"/>
+          <a:off x="7460461" y="66675"/>
           <a:ext cx="1521142" cy="6096852"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -744,18 +748,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{215BD42F-29B4-4F2F-8C0E-7A45DE6A7CE7}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.25" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.75" style="1" bestFit="1" customWidth="1"/>
@@ -777,22 +780,25 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -808,14 +814,15 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -831,10 +838,13 @@
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -851,105 +861,111 @@
       <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>20</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="G8" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>38</v>
+      <c r="G9" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D10" s="1" t="s">
-        <v>7</v>
+      <c r="C10" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C11" s="2" t="s">
-        <v>35</v>
+      <c r="C11" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -957,81 +973,83 @@
       <c r="C13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E17" s="1" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F17" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E18" s="1" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F18" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E19" s="1" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F19" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="E20" s="1" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F20" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B21" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="2" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="C23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E23" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E24" s="1" t="s">
+      <c r="G23" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G24" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F26" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1079,16 +1097,16 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -1165,11 +1183,11 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C6" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -1180,27 +1198,27 @@
         <v>50</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="1">
         <v>0.1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1214,7 +1232,7 @@
         <v>7</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -1225,7 +1243,7 @@
         <v>15</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">

--- a/数值.xlsx
+++ b/数值.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Godot Projects\minidayz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F86E70-363A-4529-B2C4-A7A565D9C474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53469D8D-3B01-4DC8-B205-29382072F379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{94B643B6-7569-406B-AD43-B8AE076E39CC}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -215,6 +215,10 @@
   </si>
   <si>
     <t>stackable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态物品</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -400,23 +404,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>526261</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>637703</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>10377</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>124038</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>124676</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3">
+        <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9AECCB8-8F70-4E23-946E-D36C15115256}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{893C3EE1-FF34-BCCF-CBE5-974EC642CC00}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -438,8 +442,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7460461" y="66675"/>
-          <a:ext cx="1521142" cy="6096852"/>
+          <a:off x="6296025" y="0"/>
+          <a:ext cx="1524213" cy="6096851"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -751,7 +755,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -786,7 +790,7 @@
         <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>47</v>
@@ -930,8 +934,8 @@
       <c r="C8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>37</v>
+      <c r="G8" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -942,7 +946,7 @@
         <v>4</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -955,6 +959,9 @@
       <c r="F10" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="G10" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
@@ -1035,17 +1042,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G24" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F25" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">

--- a/数值.xlsx
+++ b/数值.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Godot Projects\minidayz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53469D8D-3B01-4DC8-B205-29382072F379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95037CC-894D-4808-A728-4B9CD11539F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{94B643B6-7569-406B-AD43-B8AE076E39CC}"/>
   </bookViews>
@@ -405,13 +405,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:colOff>704850</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>124038</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76413</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>124676</xdr:rowOff>
     </xdr:to>
@@ -442,8 +442,58 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6296025" y="0"/>
+          <a:off x="6667500" y="0"/>
           <a:ext cx="1524213" cy="6096851"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1695450</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EBF44C4-A55B-9271-2CCF-96BC1823BF80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12992100" y="3409950"/>
+          <a:ext cx="2933700" cy="838200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -755,16 +805,15 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="D1" sqref="B1:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.25" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.75" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.5" style="1" bestFit="1" customWidth="1"/>

--- a/数值.xlsx
+++ b/数值.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Godot Projects\minidayz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95037CC-894D-4808-A728-4B9CD11539F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C34BD4C-78A4-41E4-8800-90DD694B9221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{94B643B6-7569-406B-AD43-B8AE076E39CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{94B643B6-7569-406B-AD43-B8AE076E39CC}"/>
   </bookViews>
   <sheets>
     <sheet name="物品" sheetId="3" r:id="rId1"/>
-    <sheet name="草稿" sheetId="1" r:id="rId2"/>
+    <sheet name="背包物品" sheetId="1" r:id="rId2"/>
+    <sheet name="状态物品" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -96,33 +97,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>m4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>spread</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>guiSprite</t>
-  </si>
-  <si>
-    <t>guiSpriteOffset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res://asset/images/equipment/weapon/rifle/m4_rifle.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res://asset/images/equipment/weapon/rifle/gui_firearm.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>minSpread</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -140,22 +118,10 @@
     <t>物品</t>
   </si>
   <si>
-    <t>近战武器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>wearPerUse</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>普通物品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>食物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>health</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -220,13 +186,36 @@
   <si>
     <t>状态物品</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>texture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stack_limit</t>
+  </si>
+  <si>
+    <t>heat</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>hunger</t>
+  </si>
+  <si>
+    <t>drink</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,6 +234,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -273,7 +269,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -281,6 +277,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -304,14 +303,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>147081</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>470931</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>1606262</xdr:colOff>
+      <xdr:colOff>444212</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>142257</xdr:rowOff>
     </xdr:to>
@@ -342,7 +341,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9329181" y="0"/>
+          <a:off x="7938531" y="0"/>
           <a:ext cx="7755206" cy="2856882"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -354,16 +353,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>627785</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>161060</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>1403639</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:colOff>98714</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -392,7 +391,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9809885" y="3152774"/>
+          <a:off x="8276360" y="3009899"/>
           <a:ext cx="3119004" cy="2343150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -405,13 +404,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>704850</xdr:colOff>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>76413</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>181188</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>124676</xdr:rowOff>
     </xdr:to>
@@ -442,7 +441,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6667500" y="0"/>
+          <a:off x="6124575" y="0"/>
           <a:ext cx="1524213" cy="6096851"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -455,15 +454,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>1695450</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>594932</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>62484</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>3557969</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>4191</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -492,8 +491,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12992100" y="3409950"/>
-          <a:ext cx="2933700" cy="838200"/>
+          <a:off x="11891582" y="3139059"/>
+          <a:ext cx="2963037" cy="846582"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -804,8 +803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{215BD42F-29B4-4F2F-8C0E-7A45DE6A7CE7}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="B1:D22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -833,25 +832,25 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -926,25 +925,25 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -958,33 +957,33 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -995,12 +994,12 @@
         <v>4</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10" s="2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>7</v>
@@ -1009,17 +1008,17 @@
         <v>7</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>5</v>
@@ -1027,10 +1026,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -1073,19 +1072,19 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>14</v>
@@ -1098,7 +1097,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F26" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1111,10 +1110,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADA8E44C-1C73-416D-AFC8-DB156A420B47}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1144,266 +1143,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>28</v>
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C6" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1">
-        <v>50</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="C7" s="2"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1">
-        <v>10</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="1">
-        <v>15</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="1">
-        <v>100</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="1">
-        <v>30</v>
-      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C21" s="2"/>
+      <c r="E21" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9550AC8-5683-43CF-9202-DC912C26FC75}">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/数值.xlsx
+++ b/数值.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Godot Projects\minidayz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C34BD4C-78A4-41E4-8800-90DD694B9221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E9FFCA-A5D2-4FF3-BBDA-1FBD1EE9D6DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{94B643B6-7569-406B-AD43-B8AE076E39CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{94B643B6-7569-406B-AD43-B8AE076E39CC}"/>
   </bookViews>
   <sheets>
     <sheet name="物品" sheetId="3" r:id="rId1"/>
     <sheet name="背包物品" sheetId="1" r:id="rId2"/>
-    <sheet name="状态物品" sheetId="4" r:id="rId3"/>
+    <sheet name="工具物品" sheetId="5" r:id="rId3"/>
+    <sheet name="状态物品" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="96">
   <si>
     <t>id</t>
   </si>
@@ -209,6 +210,147 @@
   </si>
   <si>
     <t>drink</t>
+  </si>
+  <si>
+    <t>5.45x39 Ammo</t>
+  </si>
+  <si>
+    <t>5.56x45 Ammo</t>
+  </si>
+  <si>
+    <t>7.62 Ammo</t>
+  </si>
+  <si>
+    <t>7.62x39 Ammo</t>
+  </si>
+  <si>
+    <t>9mm Ammo</t>
+  </si>
+  <si>
+    <t>9x18 Ammo</t>
+  </si>
+  <si>
+    <t>9x39 Ammo</t>
+  </si>
+  <si>
+    <t>12cal Ammo</t>
+  </si>
+  <si>
+    <t>.22lr Ammo</t>
+  </si>
+  <si>
+    <t>.45 ACP Ammo</t>
+  </si>
+  <si>
+    <t>.357 Ammo</t>
+  </si>
+  <si>
+    <t>Crafted Arrow</t>
+  </si>
+  <si>
+    <t>Composite Arrow</t>
+  </si>
+  <si>
+    <t>Ashwood Stick</t>
+  </si>
+  <si>
+    <t>Wood Sticks</t>
+  </si>
+  <si>
+    <t>Wood Piles</t>
+  </si>
+  <si>
+    <t>Campfire Kit</t>
+  </si>
+  <si>
+    <t>Rope</t>
+  </si>
+  <si>
+    <t>Papers</t>
+  </si>
+  <si>
+    <t>Burlap Sack</t>
+  </si>
+  <si>
+    <t>Matches</t>
+  </si>
+  <si>
+    <t>Protective Case</t>
+  </si>
+  <si>
+    <t>Rag</t>
+  </si>
+  <si>
+    <t>Bandage</t>
+  </si>
+  <si>
+    <t>Vitamins</t>
+  </si>
+  <si>
+    <t>Tetracycline</t>
+  </si>
+  <si>
+    <t>Morphine</t>
+  </si>
+  <si>
+    <t>Flare</t>
+  </si>
+  <si>
+    <t>F1 Grenade</t>
+  </si>
+  <si>
+    <t>Molotov</t>
+  </si>
+  <si>
+    <t>Duct tape</t>
+  </si>
+  <si>
+    <t>Gasoline</t>
+  </si>
+  <si>
+    <t>Car toolbox</t>
+  </si>
+  <si>
+    <t>Bandolier</t>
+  </si>
+  <si>
+    <t>Magpul</t>
+  </si>
+  <si>
+    <t>Choke</t>
+  </si>
+  <si>
+    <t>ACOG scope</t>
+  </si>
+  <si>
+    <t>Long Range Scope</t>
+  </si>
+  <si>
+    <t>PSO-1 scope</t>
+  </si>
+  <si>
+    <t>PU scope</t>
+  </si>
+  <si>
+    <t>RDS scope</t>
+  </si>
+  <si>
+    <t>Silencer 5.45</t>
+  </si>
+  <si>
+    <t>Silencer 5.56</t>
+  </si>
+  <si>
+    <t>Barbed wire</t>
+  </si>
+  <si>
+    <t>Bear trap</t>
+  </si>
+  <si>
+    <t>Landmine</t>
+  </si>
+  <si>
+    <t>Claymore</t>
   </si>
 </sst>
 </file>
@@ -403,56 +545,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>181188</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>124676</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{893C3EE1-FF34-BCCF-CBE5-974EC642CC00}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6124575" y="0"/>
-          <a:ext cx="1524213" cy="6096851"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>594932</xdr:colOff>
       <xdr:row>17</xdr:row>
@@ -478,7 +570,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -493,6 +585,56 @@
         <a:xfrm>
           <a:off x="11891582" y="3139059"/>
           <a:ext cx="2963037" cy="846582"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>85938</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>124676</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{266E9219-33B0-795F-A47E-9FE60E990FF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6029325" y="0"/>
+          <a:ext cx="1524213" cy="6096851"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -804,7 +946,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1110,19 +1252,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADA8E44C-1C73-416D-AFC8-DB156A420B47}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K13" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.75" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.75" style="1" bestFit="1" customWidth="1"/>
@@ -1160,6 +1302,12 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -1169,35 +1317,389 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="C21" s="2"/>
       <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>95</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1207,10 +1709,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14791A4C-0BF9-4440-AB2E-10FC627E3C51}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9550AC8-5683-43CF-9202-DC912C26FC75}">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>

--- a/数值.xlsx
+++ b/数值.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Godot Projects\minidayz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E9FFCA-A5D2-4FF3-BBDA-1FBD1EE9D6DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360617AA-362D-49DB-B16E-2D82E6C31067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{94B643B6-7569-406B-AD43-B8AE076E39CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{94B643B6-7569-406B-AD43-B8AE076E39CC}"/>
   </bookViews>
   <sheets>
     <sheet name="物品" sheetId="3" r:id="rId1"/>
-    <sheet name="背包物品" sheetId="1" r:id="rId2"/>
-    <sheet name="工具物品" sheetId="5" r:id="rId3"/>
-    <sheet name="状态物品" sheetId="4" r:id="rId4"/>
+    <sheet name="近战武器" sheetId="4" r:id="rId2"/>
+    <sheet name="远程武器" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="104">
   <si>
     <t>id</t>
   </si>
@@ -189,168 +188,211 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>itemName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>item_name</t>
   </si>
   <si>
     <t>texture</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stack_limit</t>
-  </si>
-  <si>
-    <t>heat</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>hunger</t>
-  </si>
-  <si>
-    <t>drink</t>
-  </si>
-  <si>
-    <t>5.45x39 Ammo</t>
-  </si>
-  <si>
-    <t>5.56x45 Ammo</t>
-  </si>
-  <si>
-    <t>7.62 Ammo</t>
-  </si>
-  <si>
-    <t>7.62x39 Ammo</t>
-  </si>
-  <si>
-    <t>9mm Ammo</t>
-  </si>
-  <si>
-    <t>9x18 Ammo</t>
-  </si>
-  <si>
-    <t>9x39 Ammo</t>
-  </si>
-  <si>
-    <t>12cal Ammo</t>
-  </si>
-  <si>
-    <t>.22lr Ammo</t>
-  </si>
-  <si>
-    <t>.45 ACP Ammo</t>
-  </si>
-  <si>
-    <t>.357 Ammo</t>
-  </si>
-  <si>
-    <t>Crafted Arrow</t>
-  </si>
-  <si>
-    <t>Composite Arrow</t>
-  </si>
-  <si>
-    <t>Ashwood Stick</t>
-  </si>
-  <si>
-    <t>Wood Sticks</t>
-  </si>
-  <si>
-    <t>Wood Piles</t>
-  </si>
-  <si>
-    <t>Campfire Kit</t>
-  </si>
-  <si>
-    <t>Rope</t>
-  </si>
-  <si>
-    <t>Papers</t>
-  </si>
-  <si>
-    <t>Burlap Sack</t>
-  </si>
-  <si>
-    <t>Matches</t>
-  </si>
-  <si>
-    <t>Protective Case</t>
-  </si>
-  <si>
-    <t>Rag</t>
-  </si>
-  <si>
-    <t>Bandage</t>
-  </si>
-  <si>
-    <t>Vitamins</t>
-  </si>
-  <si>
-    <t>Tetracycline</t>
-  </si>
-  <si>
-    <t>Morphine</t>
-  </si>
-  <si>
-    <t>Flare</t>
-  </si>
-  <si>
-    <t>F1 Grenade</t>
-  </si>
-  <si>
-    <t>Molotov</t>
-  </si>
-  <si>
-    <t>Duct tape</t>
-  </si>
-  <si>
-    <t>Gasoline</t>
-  </si>
-  <si>
-    <t>Car toolbox</t>
-  </si>
-  <si>
-    <t>Bandolier</t>
-  </si>
-  <si>
-    <t>Magpul</t>
-  </si>
-  <si>
-    <t>Choke</t>
-  </si>
-  <si>
-    <t>ACOG scope</t>
-  </si>
-  <si>
-    <t>Long Range Scope</t>
-  </si>
-  <si>
-    <t>PSO-1 scope</t>
-  </si>
-  <si>
-    <t>PU scope</t>
-  </si>
-  <si>
-    <t>RDS scope</t>
-  </si>
-  <si>
-    <t>Silencer 5.45</t>
-  </si>
-  <si>
-    <t>Silencer 5.56</t>
-  </si>
-  <si>
-    <t>Barbed wire</t>
-  </si>
-  <si>
-    <t>Bear trap</t>
-  </si>
-  <si>
-    <t>Landmine</t>
-  </si>
-  <si>
-    <t>Claymore</t>
+  </si>
+  <si>
+    <t>wear_per_use</t>
+  </si>
+  <si>
+    <t>basic_spread</t>
+  </si>
+  <si>
+    <t>min_spread</t>
+  </si>
+  <si>
+    <t>max_spread</t>
+  </si>
+  <si>
+    <t>spread_per_shot</t>
+  </si>
+  <si>
+    <t>mag_size</t>
+  </si>
+  <si>
+    <t>ammo_type</t>
+  </si>
+  <si>
+    <t>aim_speed</t>
+  </si>
+  <si>
+    <t>reload_time</t>
+  </si>
+  <si>
+    <t>fire_rate</t>
+  </si>
+  <si>
+    <t>res://asset/images/equipment/weapon/rifle/ak74_rifle.png</t>
+  </si>
+  <si>
+    <t>res://asset/images/equipment/weapon/rifle/akm_rifle.png</t>
+  </si>
+  <si>
+    <t>res://asset/images/equipment/weapon/rifle/aks74u_rifle.png</t>
+  </si>
+  <si>
+    <t>res://asset/images/equipment/weapon/rifle/aug_rifle.png</t>
+  </si>
+  <si>
+    <t>res://asset/images/equipment/weapon/rifle/bm16_shotgun.png</t>
+  </si>
+  <si>
+    <t>res://asset/images/equipment/weapon/rifle/fncal_rifle.png</t>
+  </si>
+  <si>
+    <t>res://asset/images/equipment/weapon/rifle/groza_rifle.png</t>
+  </si>
+  <si>
+    <t>res://asset/images/equipment/weapon/rifle/l85_rifle.png</t>
+  </si>
+  <si>
+    <t>res://asset/images/equipment/weapon/rifle/m4_rifle.png</t>
+  </si>
+  <si>
+    <t>res://asset/images/equipment/weapon/rifle/mosin_nagant.png</t>
+  </si>
+  <si>
+    <t>res://asset/images/equipment/weapon/rifle/mp5_smg.png</t>
+  </si>
+  <si>
+    <t>res://asset/images/equipment/weapon/rifle/rpk_rifle.png</t>
+  </si>
+  <si>
+    <t>res://asset/images/equipment/weapon/rifle/saiga_shotgun.png</t>
+  </si>
+  <si>
+    <t>res://asset/images/equipment/weapon/rifle/sks_rifle.png</t>
+  </si>
+  <si>
+    <t>res://asset/images/equipment/weapon/rifle/sporter_rifle.png</t>
+  </si>
+  <si>
+    <t>res://asset/images/equipment/weapon/rifle/sv98_rifle.png</t>
+  </si>
+  <si>
+    <t>res://asset/images/equipment/weapon/rifle/svd_rifle.png</t>
+  </si>
+  <si>
+    <t>res://asset/images/equipment/weapon/rifle/ump45_smg.png</t>
+  </si>
+  <si>
+    <t>res://asset/images/equipment/weapon/rifle/vss_rifle.png</t>
+  </si>
+  <si>
+    <t>AK-74</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M-4</t>
+  </si>
+  <si>
+    <t>AKM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUG</t>
+  </si>
+  <si>
+    <t>RPK</t>
+  </si>
+  <si>
+    <t>SKS</t>
+  </si>
+  <si>
+    <t>SV-98</t>
+  </si>
+  <si>
+    <t>SVD</t>
+  </si>
+  <si>
+    <t>UMP-45</t>
+  </si>
+  <si>
+    <t>VSS</t>
+  </si>
+  <si>
+    <t>res://asset/images/equipment/weapon/rifle/crossbow.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crossbow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AKS74U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://asset/images/equipment/weapon/rifle/bizon_smg.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bizon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IZH-43</t>
+  </si>
+  <si>
+    <t>FN CAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Groza</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://asset/images/equipment/weapon/rifle/improvised_bow.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Improvised Bow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://asset/images/equipment/weapon/rifle/madsen_mg.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Madsen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mosin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://asset/images/equipment/weapon/rifle/r670_shotgun.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remington 870</t>
+  </si>
+  <si>
+    <t>res://asset/images/equipment/weapon/rifle/repeater_rifle.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Repeater</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saiga-12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sporter 22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -382,9 +424,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -945,7 +988,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{215BD42F-29B4-4F2F-8C0E-7A45DE6A7CE7}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -1251,454 +1294,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADA8E44C-1C73-416D-AFC8-DB156A420B47}">
-  <dimension ref="A1:I48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59A58FF1-4D6B-48BF-A4C3-32B4DD813447}">
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K13" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="51.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="54.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9" style="1"/>
-    <col min="19" max="19" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="F1" t="s">
         <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
-        <v>41</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
-        <v>44</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
-        <v>45</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
-        <v>46</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1709,61 +1339,358 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14791A4C-0BF9-4440-AB2E-10FC627E3C51}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4129E3EC-201A-4968-8528-D5D8EA18EA4A}">
+  <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9550AC8-5683-43CF-9202-DC912C26FC75}">
-  <dimension ref="A1:I1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
         <v>21</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" t="s">
-        <v>45</v>
+      <c r="B23" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/数值.xlsx
+++ b/数值.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Godot Projects\minidayz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360617AA-362D-49DB-B16E-2D82E6C31067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566001D4-0FCF-45D7-A227-C04E872C6655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{94B643B6-7569-406B-AD43-B8AE076E39CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{94B643B6-7569-406B-AD43-B8AE076E39CC}"/>
   </bookViews>
   <sheets>
     <sheet name="物品" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="130">
   <si>
     <t>id</t>
   </si>
@@ -224,70 +224,10 @@
     <t>fire_rate</t>
   </si>
   <si>
-    <t>res://asset/images/equipment/weapon/rifle/ak74_rifle.png</t>
-  </si>
-  <si>
-    <t>res://asset/images/equipment/weapon/rifle/akm_rifle.png</t>
-  </si>
-  <si>
-    <t>res://asset/images/equipment/weapon/rifle/aks74u_rifle.png</t>
-  </si>
-  <si>
-    <t>res://asset/images/equipment/weapon/rifle/aug_rifle.png</t>
-  </si>
-  <si>
-    <t>res://asset/images/equipment/weapon/rifle/bm16_shotgun.png</t>
-  </si>
-  <si>
-    <t>res://asset/images/equipment/weapon/rifle/fncal_rifle.png</t>
-  </si>
-  <si>
-    <t>res://asset/images/equipment/weapon/rifle/groza_rifle.png</t>
-  </si>
-  <si>
-    <t>res://asset/images/equipment/weapon/rifle/l85_rifle.png</t>
-  </si>
-  <si>
-    <t>res://asset/images/equipment/weapon/rifle/m4_rifle.png</t>
-  </si>
-  <si>
-    <t>res://asset/images/equipment/weapon/rifle/mosin_nagant.png</t>
-  </si>
-  <si>
-    <t>res://asset/images/equipment/weapon/rifle/mp5_smg.png</t>
-  </si>
-  <si>
-    <t>res://asset/images/equipment/weapon/rifle/rpk_rifle.png</t>
-  </si>
-  <si>
-    <t>res://asset/images/equipment/weapon/rifle/saiga_shotgun.png</t>
-  </si>
-  <si>
-    <t>res://asset/images/equipment/weapon/rifle/sks_rifle.png</t>
-  </si>
-  <si>
-    <t>res://asset/images/equipment/weapon/rifle/sporter_rifle.png</t>
-  </si>
-  <si>
-    <t>res://asset/images/equipment/weapon/rifle/sv98_rifle.png</t>
-  </si>
-  <si>
-    <t>res://asset/images/equipment/weapon/rifle/svd_rifle.png</t>
-  </si>
-  <si>
-    <t>res://asset/images/equipment/weapon/rifle/ump45_smg.png</t>
-  </si>
-  <si>
-    <t>res://asset/images/equipment/weapon/rifle/vss_rifle.png</t>
-  </si>
-  <si>
     <t>AK-74</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>M-4</t>
-  </si>
-  <si>
     <t>AKM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -313,85 +253,233 @@
     <t>VSS</t>
   </si>
   <si>
+    <t>Crossbow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AKS74U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bizon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FN CAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Groza</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Improvised Bow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Madsen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mosin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remington 870</t>
+  </si>
+  <si>
+    <t>Repeater</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saiga-12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sporter 22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://asset/images/equipment/weapon/pistol/amphibia.png</t>
+  </si>
+  <si>
+    <t>res://asset/images/equipment/weapon/pistol/sawed_repeater.png</t>
+  </si>
+  <si>
+    <t>res://asset/images/equipment/weapon/pistol/sawed_mosin.png</t>
+  </si>
+  <si>
+    <t>amphibia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kolt 1911</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FNX-45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Glock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAC-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magnum </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sawed Mosin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sawed Repeater</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IZH-43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sawed IZH-43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rare Kolt 1911</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M4 Carbine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://asset/images/equipment/weapon/rifle/ak-74.png</t>
+  </si>
+  <si>
+    <t>res://asset/images/equipment/weapon/rifle/akm.png</t>
+  </si>
+  <si>
+    <t>res://asset/images/equipment/weapon/rifle/aks74u.png</t>
+  </si>
+  <si>
+    <t>res://asset/images/equipment/weapon/rifle/aug.png</t>
+  </si>
+  <si>
+    <t>res://asset/images/equipment/weapon/rifle/bizon.png</t>
+  </si>
+  <si>
     <t>res://asset/images/equipment/weapon/rifle/crossbow.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Crossbow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AKS74U</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res://asset/images/equipment/weapon/rifle/bizon_smg.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bizon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IZH-43</t>
-  </si>
-  <si>
-    <t>FN CAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Groza</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://asset/images/equipment/weapon/rifle/fn_cal.png</t>
+  </si>
+  <si>
+    <t>res://asset/images/equipment/weapon/rifle/groza.png</t>
   </si>
   <si>
     <t>res://asset/images/equipment/weapon/rifle/improvised_bow.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Improvised Bow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L85</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res://asset/images/equipment/weapon/rifle/madsen_mg.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Madsen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mosin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MP5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res://asset/images/equipment/weapon/rifle/r670_shotgun.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remington 870</t>
-  </si>
-  <si>
-    <t>res://asset/images/equipment/weapon/rifle/repeater_rifle.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Repeater</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Saiga-12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sporter 22</t>
+  </si>
+  <si>
+    <t>res://asset/images/equipment/weapon/rifle/izh-43.png</t>
+  </si>
+  <si>
+    <t>res://asset/images/equipment/weapon/rifle/l85.png</t>
+  </si>
+  <si>
+    <t>res://asset/images/equipment/weapon/rifle/m4_carbine.png</t>
+  </si>
+  <si>
+    <t>res://asset/images/equipment/weapon/rifle/madsen.png</t>
+  </si>
+  <si>
+    <t>res://asset/images/equipment/weapon/rifle/mosin.png</t>
+  </si>
+  <si>
+    <t>res://asset/images/equipment/weapon/rifle/remington_870.png</t>
+  </si>
+  <si>
+    <t>res://asset/images/equipment/weapon/rifle/repeater.png</t>
+  </si>
+  <si>
+    <t>res://asset/images/equipment/weapon/rifle/rpk.png</t>
+  </si>
+  <si>
+    <t>res://asset/images/equipment/weapon/rifle/saiga-12.png</t>
+  </si>
+  <si>
+    <t>res://asset/images/equipment/weapon/rifle/sks.png</t>
+  </si>
+  <si>
+    <t>res://asset/images/equipment/weapon/rifle/sporter_22.png</t>
+  </si>
+  <si>
+    <t>res://asset/images/equipment/weapon/rifle/sv-98.png</t>
+  </si>
+  <si>
+    <t>res://asset/images/equipment/weapon/rifle/svd.png</t>
+  </si>
+  <si>
+    <t>res://asset/images/equipment/weapon/rifle/ump-45.png</t>
+  </si>
+  <si>
+    <t>res://asset/images/equipment/weapon/rifle/vss.png</t>
+  </si>
+  <si>
+    <t>res://asset/images/equipment/weapon/pistol/fnx-45.png</t>
+  </si>
+  <si>
+    <t>res://asset/images/equipment/weapon/pistol/glock.png</t>
+  </si>
+  <si>
+    <t>res://asset/images/equipment/weapon/pistol/kolt_1911.png</t>
+  </si>
+  <si>
+    <t>res://asset/images/equipment/weapon/pistol/mac-10.png</t>
+  </si>
+  <si>
+    <t>res://asset/images/equipment/weapon/pistol/magnum.png</t>
+  </si>
+  <si>
+    <t>res://asset/images/equipment/weapon/pistol/pb.png</t>
+  </si>
+  <si>
+    <t>res://asset/images/equipment/weapon/pistol/pm.png</t>
+  </si>
+  <si>
+    <t>res://asset/images/equipment/weapon/pistol/rare_kolt_1911.png</t>
+  </si>
+  <si>
+    <t>res://asset/images/equipment/weapon/pistol/sawed_izh-43.png</t>
+  </si>
+  <si>
+    <t>min_damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP5K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://asset/images/equipment/weapon/rifle/mp5k.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -988,7 +1076,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{215BD42F-29B4-4F2F-8C0E-7A45DE6A7CE7}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -1340,33 +1428,34 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4129E3EC-201A-4968-8528-D5D8EA18EA4A}">
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.5" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.375" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="3"/>
+    <col min="5" max="5" width="12.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1380,312 +1469,522 @@
         <v>44</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>4</v>
+        <v>126</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>27</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>72</v>
+      <c r="C30" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>29</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>30</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>31</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>32</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>33</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>34</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>35</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>36</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
